--- a/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/BRTipoResultadoPSNG-IPS.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/BRTipoResultadoPSNG-IPS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6334C98-4C11-AF43-ADEA-4A28233BD947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF1BC24-BA7A-D048-BD51-7FC05018CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="760" windowWidth="29140" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>GRAU DE EQUIVALÊNCIA DO MAPEAMENTO</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Negative</t>
+  </si>
+  <si>
+    <t>BRTipoResultadoPSNG</t>
   </si>
 </sst>
 </file>
@@ -318,7 +321,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -767,7 +770,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -805,7 +808,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>12</v>
